--- a/Documentation/Sprint Planning/Planeamento de Sprints - NaaiTek.xlsx
+++ b/Documentation/Sprint Planning/Planeamento de Sprints - NaaiTek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="descrição e releases" sheetId="1" r:id="rId1"/>
@@ -1176,9 +1176,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,206 +1326,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1574,6 +1373,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1583,11 +1463,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1902,7 +1902,7 @@
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1930,120 +1930,120 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="83"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="83"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="83"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="86"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2068,103 +2068,103 @@
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>1100859</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>1110119</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>1111168</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>1110333</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2198,22 +2198,22 @@
       <c r="E26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="66" t="s">
+      <c r="G26" s="106"/>
+      <c r="H26" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="76"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="112"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
@@ -2228,20 +2228,20 @@
       <c r="E27" s="6">
         <v>6</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="105">
         <v>24</v>
       </c>
-      <c r="G27" s="90"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="140"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="109"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
@@ -2256,22 +2256,22 @@
       <c r="E28" s="6">
         <v>7</v>
       </c>
-      <c r="F28" s="90">
+      <c r="F28" s="105">
         <v>28</v>
       </c>
-      <c r="G28" s="90"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="138" t="s">
+      <c r="I28" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="140"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="109"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
@@ -2286,144 +2286,146 @@
       <c r="E29" s="6">
         <v>8</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="105">
         <v>32</v>
       </c>
-      <c r="G29" s="90"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="138" t="s">
+      <c r="I29" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="109"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>4</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>41645</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>41652</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>7</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="104">
         <v>28</v>
       </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="20" t="s">
+      <c r="G30" s="104"/>
+      <c r="H30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="138" t="s">
+      <c r="I30" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="109"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="27"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="28"/>
+      <c r="B36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I30:O30"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="B4:O9"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -2440,8 +2442,6 @@
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="I27:O27"/>
     <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I30:O30"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H32">
@@ -2458,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L26" sqref="L26:M26"/>
       <selection pane="topRight" activeCell="L26" sqref="L26:M26"/>
@@ -2468,411 +2468,411 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="29" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="29"/>
-    <col min="8" max="8" width="27.28515625" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="3.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="28" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="28"/>
+    <col min="8" max="8" width="27.28515625" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="73" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="35" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="35" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2895,213 +2895,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" style="41" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="12.42578125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="41" customWidth="1"/>
-    <col min="11" max="13" width="4.28515625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="5" style="41" customWidth="1"/>
-    <col min="15" max="17" width="4.28515625" style="41" customWidth="1"/>
-    <col min="18" max="19" width="5" style="41" customWidth="1"/>
-    <col min="20" max="21" width="4.28515625" style="41" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="41" customWidth="1"/>
-    <col min="24" max="29" width="4.28515625" style="41" customWidth="1"/>
-    <col min="30" max="31" width="5.140625" style="41" customWidth="1"/>
-    <col min="32" max="33" width="4.28515625" style="41" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" style="41" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="1" style="40" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="40"/>
+    <col min="8" max="8" width="12.42578125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="40" customWidth="1"/>
+    <col min="11" max="13" width="4.28515625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="5" style="40" customWidth="1"/>
+    <col min="15" max="17" width="4.28515625" style="40" customWidth="1"/>
+    <col min="18" max="19" width="5" style="40" customWidth="1"/>
+    <col min="20" max="21" width="4.28515625" style="40" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="40" customWidth="1"/>
+    <col min="24" max="29" width="4.28515625" style="40" customWidth="1"/>
+    <col min="30" max="31" width="5.140625" style="40" customWidth="1"/>
+    <col min="32" max="33" width="4.28515625" style="40" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" style="40" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
       <c r="I2" s="11">
         <v>24</v>
       </c>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9">
         <v>41618</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="42">
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="41">
         <v>24</v>
       </c>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="133"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="9">
         <v>41624</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="40">
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="39">
         <v>2</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="136"/>
     </row>
     <row r="5" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
     </row>
     <row r="7" spans="2:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="155"/>
       <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="105"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="157"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="105"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="157"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="105"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="157"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="105"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="157"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="105"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="157"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="105"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3114,1034 +3114,1067 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <f>SUM(I8:I13)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
     </row>
     <row r="15" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="123"/>
-      <c r="AF16" s="123"/>
-      <c r="AG16" s="123"/>
-      <c r="AH16" s="124"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="126"/>
     </row>
     <row r="17" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="118" t="s">
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="118" t="s">
+      <c r="H17" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="120" t="s">
+      <c r="J17" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="120" t="s">
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="120" t="s">
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="120" t="s">
+      <c r="S17" s="150"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="120" t="s">
+      <c r="W17" s="150"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="120" t="s">
+      <c r="AA17" s="150"/>
+      <c r="AB17" s="150"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="162" t="s">
+      <c r="AE17" s="150"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="139" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="43" t="s">
+      <c r="B18" s="144"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="44" t="s">
+      <c r="O18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="67" t="s">
+      <c r="S18" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="44" t="s">
+      <c r="T18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="U18" s="44" t="s">
+      <c r="U18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="67" t="s">
+      <c r="W18" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="X18" s="44" t="s">
+      <c r="X18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y18" s="147" t="s">
+      <c r="Y18" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" s="43" t="s">
+      <c r="Z18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="67" t="s">
+      <c r="AA18" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="AB18" s="67" t="s">
+      <c r="AB18" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" s="153" t="s">
+      <c r="AC18" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AE18" s="67" t="s">
+      <c r="AE18" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="AF18" s="44" t="s">
+      <c r="AF18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AG18" s="147" t="s">
+      <c r="AG18" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="AH18" s="163"/>
+      <c r="AH18" s="140"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="45"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="44"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="69"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="68"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="69"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="68"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="69"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="68"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
-      <c r="AH20" s="49"/>
+      <c r="AH20" s="48"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="69"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="69"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="68"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="69"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="68"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
-      <c r="AH21" s="49"/>
+      <c r="AH21" s="48"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="69"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="69"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="68"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="69"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="68"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="49"/>
+      <c r="AH22" s="48"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="69"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="68"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="69"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="68"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="69"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="68"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
-      <c r="AH23" s="49"/>
+      <c r="AH23" s="48"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="69"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="68"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="69"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="68"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="69"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="68"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
-      <c r="AH24" s="49"/>
+      <c r="AH24" s="48"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="45"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="44"/>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="51"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="69"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="68"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="69"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="68"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="69"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="68"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="49"/>
+      <c r="AH26" s="48"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="51"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="69"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="68"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="69"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="68"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="69"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="68"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
-      <c r="AH27" s="49"/>
+      <c r="AH27" s="48"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="59"/>
+      <c r="N28" s="58"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="72"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="71"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="72"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="71"/>
       <c r="X28" s="14"/>
-      <c r="Y28" s="152"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="72"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="71"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
-      <c r="AH28" s="57"/>
+      <c r="AH28" s="56"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="51"/>
+      <c r="N29" s="50"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="69"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="68"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="69"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="68"/>
       <c r="X29" s="11"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="69"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="68"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="49"/>
+      <c r="AH29" s="48"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="51"/>
+      <c r="N30" s="50"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="69"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="68"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="69"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="68"/>
       <c r="X30" s="11"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="69"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="68"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
-      <c r="AH30" s="49"/>
+      <c r="AH30" s="48"/>
     </row>
     <row r="31" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="51"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="69"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="68"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="69"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="68"/>
       <c r="X31" s="11"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="69"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="68"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
-      <c r="AH31" s="49"/>
+      <c r="AH31" s="48"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="51"/>
+      <c r="N32" s="50"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="69"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="68"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="69"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="68"/>
       <c r="X32" s="11"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="69"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="68"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="49"/>
+      <c r="AH32" s="48"/>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="51"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="69"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="68"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="69"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="68"/>
       <c r="X33" s="11"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="69"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="68"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
-      <c r="AH33" s="49"/>
+      <c r="AH33" s="48"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B34" s="106"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="60"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="59"/>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="59"/>
+      <c r="N35" s="58"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="72"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="72"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="71"/>
       <c r="X35" s="14"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="72"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="71"/>
       <c r="AF35" s="14"/>
       <c r="AG35" s="14"/>
-      <c r="AH35" s="57"/>
+      <c r="AH35" s="56"/>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
-      <c r="N36" s="59"/>
+      <c r="N36" s="58"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="72"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="71"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="72"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="71"/>
       <c r="X36" s="14"/>
-      <c r="Y36" s="152"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="158"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="72"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="71"/>
       <c r="AF36" s="14"/>
       <c r="AG36" s="14"/>
-      <c r="AH36" s="57"/>
+      <c r="AH36" s="56"/>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
-      <c r="N37" s="59"/>
+      <c r="N37" s="58"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="72"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="71"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="72"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="71"/>
       <c r="X37" s="14"/>
-      <c r="Y37" s="152"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="158"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="72"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="71"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="14"/>
-      <c r="AH37" s="57"/>
+      <c r="AH37" s="56"/>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="59"/>
+      <c r="N38" s="58"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="72"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="71"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="72"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="71"/>
       <c r="X38" s="14"/>
-      <c r="Y38" s="152"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="158"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="72"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="91"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="71"/>
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
-      <c r="AH38" s="57"/>
+      <c r="AH38" s="56"/>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="59"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
-      <c r="N39" s="59"/>
+      <c r="N39" s="58"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="72"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="71"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="72"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="71"/>
       <c r="X39" s="14"/>
-      <c r="Y39" s="152"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="158"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="72"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="91"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="71"/>
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
-      <c r="AH39" s="57"/>
+      <c r="AH39" s="56"/>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
-      <c r="N40" s="59"/>
+      <c r="N40" s="58"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="72"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="71"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="72"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="71"/>
       <c r="X40" s="14"/>
-      <c r="Y40" s="152"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="158"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="72"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="71"/>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
-      <c r="AH40" s="57"/>
+      <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="2:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="59"/>
+      <c r="N41" s="58"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="72"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="71"/>
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="72"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="71"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="152"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="72"/>
-      <c r="AC41" s="158"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="72"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="91"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="71"/>
       <c r="AF41" s="14"/>
       <c r="AG41" s="14"/>
-      <c r="AH41" s="57"/>
-      <c r="AN41" s="73"/>
+      <c r="AH41" s="56"/>
+      <c r="AN41" s="72"/>
     </row>
     <row r="42" spans="2:40" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="135"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="52"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="83"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AC42" s="89"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="69"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="J16:AH16"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="K2:T4"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
@@ -4158,39 +4191,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="J16:AH16"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="K2:T4"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="B17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
